--- a/biology/Zoologie/Epigonus_telescopus/Epigonus_telescopus.xlsx
+++ b/biology/Zoologie/Epigonus_telescopus/Epigonus_telescopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sonneur commun, Cardinal noir
-Le Sonneur commun[5] (Epigonus telescopus), ou littéralement cardinal noir d'après son nom en anglais, est une espèce de poissons cardinaux que l'on retrouve dans la plupart des océans tempérés du monde à des profondeurs comprises entre 75 et 1 200 m, mais surtout entre 300 et 800 m. Il peut atteindre une longueur de 75 cm LT, bien que la plupart des spécimens n'excèdent pas 55 cm LT. Il a été signalé que cette espèce peut atteindre l'âge de 104 ans[6].
+Le Sonneur commun (Epigonus telescopus), ou littéralement cardinal noir d'après son nom en anglais, est une espèce de poissons cardinaux que l'on retrouve dans la plupart des océans tempérés du monde à des profondeurs comprises entre 75 et 1 200 m, mais surtout entre 300 et 800 m. Il peut atteindre une longueur de 75 cm LT, bien que la plupart des spécimens n'excèdent pas 55 cm LT. Il a été signalé que cette espèce peut atteindre l'âge de 104 ans.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sonneur commun est un poisson peu profond, aux grands yeux, au museau arrondi et à la mâchoire inférieure légèrement saillante. La nageoire dorsale est en deux parties et compte sept ou huit épines et neuf à onze rayons mous. La nageoire anale a deux épines et neuf rayons doux. La couleur générale de ce poisson est brun violacé ou noir et les spécimens vivants sont irisés[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sonneur commun est un poisson peu profond, aux grands yeux, au museau arrondi et à la mâchoire inférieure légèrement saillante. La nageoire dorsale est en deux parties et compte sept ou huit épines et neuf à onze rayons mous. La nageoire anale a deux épines et neuf rayons doux. La couleur générale de ce poisson est brun violacé ou noir et les spécimens vivants sont irisés.
 </t>
         </is>
       </c>
@@ -569,9 +585,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sonneur noir est un poisson bentho-pélagique d'eau profonde que l'on trouve sur les marges continentales, les crêtes et les monts sous-marins en Atlantique Nord, de l'Islande aux îles Canaries et aux Monts sous-marins du Corner Rise (en). On le trouve également dans l'Atlantique Sud-Est, y compris la dorsale de Walvis au large du sud-ouest de l'Afrique, dans l'océan Indien et dans le sud-ouest de l'océan Pacifique[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sonneur noir est un poisson bentho-pélagique d'eau profonde que l'on trouve sur les marges continentales, les crêtes et les monts sous-marins en Atlantique Nord, de l'Islande aux îles Canaries et aux Monts sous-marins du Corner Rise (en). On le trouve également dans l'Atlantique Sud-Est, y compris la dorsale de Walvis au large du sud-ouest de l'Afrique, dans l'océan Indien et dans le sud-ouest de l'océan Pacifique.
 </t>
         </is>
       </c>
@@ -600,9 +618,11 @@
           <t>Pêche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson fait l'objet d'une pêche commerciale, principalement autour des monts sous-marins[8]. D'après les statistiques de pêche de la FAO, les prises annuelles mondiales se situaient entre 1 355 et 4 353 tonnes de 2000 à 2009, la plupart des poissons ayant été pêchés dans le Pacifique Sud-Ouest (Zone de pêche 81 de la FAO)[9].  Cependant, selon Watson et al., les prises ont atteint un pic de 10 000 tonnes en 2000[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson fait l'objet d'une pêche commerciale, principalement autour des monts sous-marins. D'après les statistiques de pêche de la FAO, les prises annuelles mondiales se situaient entre 1 355 et 4 353 tonnes de 2000 à 2009, la plupart des poissons ayant été pêchés dans le Pacifique Sud-Ouest (Zone de pêche 81 de la FAO).  Cependant, selon Watson et al., les prises ont atteint un pic de 10 000 tonnes en 2000.
 </t>
         </is>
       </c>
